--- a/GO Heatmap HCADtrajectory early.xlsx
+++ b/GO Heatmap HCADtrajectory early.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radboudumc-my.sharepoint.com/personal/felicitas_pardow_radboudumc_nl/Documents/Results/KCsinAD/FPcomp/KCinAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0C554F16A25824900A13C86344583E1FEF1B6034" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39A19AB1-DF0D-4512-9DC9-4F7C5D321892}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_0C554F16A25824900A13C86344583E1FEF1B6034" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1FBD1E7-D6A7-4BA9-9660-78C74F94B4EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Early_ASS1down" sheetId="1" r:id="rId1"/>
@@ -1655,12 +1655,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1675,8 +1687,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1975,13 +1990,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2023,7 +2039,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
@@ -2055,7 +2071,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
@@ -2119,7 +2135,7 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
@@ -2663,7 +2679,7 @@
       <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D22" t="s">
@@ -2727,7 +2743,7 @@
       <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D24" t="s">
@@ -3271,7 +3287,7 @@
       <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D41" t="s">
@@ -3303,7 +3319,7 @@
       <c r="B42" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D42" t="s">
@@ -3559,7 +3575,7 @@
       <c r="B50" t="s">
         <v>169</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D50" t="s">
@@ -3687,7 +3703,7 @@
       <c r="B54" t="s">
         <v>180</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D54" t="s">
@@ -4554,9 +4570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4597,7 +4619,7 @@
       <c r="B2" t="s">
         <v>265</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D2" t="s">
@@ -4693,7 +4715,7 @@
       <c r="B5" t="s">
         <v>278</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D5" t="s">
@@ -4789,7 +4811,7 @@
       <c r="B8" t="s">
         <v>291</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D8" t="s">
@@ -4949,7 +4971,7 @@
       <c r="B13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D13" t="s">
@@ -5109,7 +5131,7 @@
       <c r="B18" t="s">
         <v>327</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D18" t="s">
@@ -6488,9 +6510,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="9" max="9" width="64.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6531,7 +6559,7 @@
       <c r="B2" t="s">
         <v>483</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>484</v>
       </c>
       <c r="D2" t="s">
@@ -6627,25 +6655,25 @@
       <c r="B5" t="s">
         <v>493</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>7.4062148498136202E-5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>1.19240059081999E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>8.5171470772856597E-3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>486</v>
       </c>
       <c r="J5">
@@ -6854,7 +6882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
